--- a/jmeter/Resumen Datos Experimento.xlsx
+++ b/jmeter/Resumen Datos Experimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ExternalAppsMac/MISO/proyecto_1/MISW-4501-GRUPO25/jmeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7AC5BB04-2964-904A-A7EF-7797D107242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FC768558-55C3-104E-A57F-F098F951DDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17140"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Datos Experimento" sheetId="1" r:id="rId1"/>
@@ -987,7 +987,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
